--- a/INTLINE/data/134/FSE/DAX 30 Index - Weekly.xlsx
+++ b/INTLINE/data/134/FSE/DAX 30 Index - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DUP2"/>
+  <dimension ref="A1:DUT2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16684,15 +16684,35 @@
       </c>
       <c r="DUN1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-09</t>
+        </is>
+      </c>
+      <c r="DUO1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="DUP1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-23</t>
+        </is>
+      </c>
+      <c r="DUQ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-30</t>
+        </is>
+      </c>
+      <c r="DUR1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="DUO1" s="1" t="inlineStr">
+      <c r="DUS1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="DUP1" s="1" t="inlineStr">
+      <c r="DUT1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -26488,19 +26508,31 @@
         <v>14446.48</v>
       </c>
       <c r="DUM2" t="n">
-        <v>14424.36</v>
-      </c>
-      <c r="DUN2" t="inlineStr">
+        <v>14283.67</v>
+      </c>
+      <c r="DUN2" t="n">
+        <v>14163.85</v>
+      </c>
+      <c r="DUO2" t="n">
+        <v>14142.09</v>
+      </c>
+      <c r="DUP2" t="n">
+        <v>14097.88</v>
+      </c>
+      <c r="DUQ2" t="n">
+        <v>14039.47</v>
+      </c>
+      <c r="DUR2" t="inlineStr">
         <is>
           <t>DAX30</t>
         </is>
       </c>
-      <c r="DUO2" t="inlineStr">
+      <c r="DUS2" t="inlineStr">
         <is>
           <t>DAX 30 Index, Close Price</t>
         </is>
       </c>
-      <c r="DUP2" t="inlineStr">
+      <c r="DUT2" t="inlineStr">
         <is>
           <t>Index: 1987.12.30=1000</t>
         </is>

--- a/INTLINE/data/134/FSE/DAX 30 Index - Weekly.xlsx
+++ b/INTLINE/data/134/FSE/DAX 30 Index - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DVA2"/>
+  <dimension ref="A1:DVB2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16739,15 +16739,20 @@
       </c>
       <c r="DUY1" s="1" t="inlineStr">
         <is>
+          <t>2022-06-25</t>
+        </is>
+      </c>
+      <c r="DUZ1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="DUZ1" s="1" t="inlineStr">
+      <c r="DVA1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="DVA1" s="1" t="inlineStr">
+      <c r="DVB1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -26576,19 +26581,22 @@
         <v>13126.26</v>
       </c>
       <c r="DUX2" t="n">
-        <v>13292.4</v>
-      </c>
-      <c r="DUY2" t="inlineStr">
+        <v>13118.13</v>
+      </c>
+      <c r="DUY2" t="n">
+        <v>13186.07</v>
+      </c>
+      <c r="DUZ2" t="inlineStr">
         <is>
           <t>DAX30</t>
         </is>
       </c>
-      <c r="DUZ2" t="inlineStr">
+      <c r="DVA2" t="inlineStr">
         <is>
           <t>DAX 30 Index, Close Price</t>
         </is>
       </c>
-      <c r="DVA2" t="inlineStr">
+      <c r="DVB2" t="inlineStr">
         <is>
           <t>Index: 1987.12.30=1000</t>
         </is>
